--- a/Jogos_do_Dia/2024-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1141,10 +1141,10 @@
         <v>2.16</v>
       </c>
       <c r="K2">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="L2">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="M2">
         <v>1.44</v>
@@ -1165,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U2">
         <v>1.91</v>
@@ -1400,13 +1400,13 @@
         <v>3.1</v>
       </c>
       <c r="J4">
-        <v>2.74</v>
+        <v>2.39</v>
       </c>
       <c r="K4">
-        <v>3.45</v>
+        <v>3.22</v>
       </c>
       <c r="L4">
-        <v>2.14</v>
+        <v>2.62</v>
       </c>
       <c r="M4">
         <v>1.4</v>
@@ -1427,10 +1427,10 @@
         <v>3.4</v>
       </c>
       <c r="S4">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="T4">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="U4">
         <v>1.7</v>
@@ -1531,13 +1531,13 @@
         <v>3.08</v>
       </c>
       <c r="J5">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>3.29</v>
       </c>
       <c r="L5">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="M5">
         <v>1.36</v>
@@ -1558,10 +1558,10 @@
         <v>3.48</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U5">
         <v>1.65</v>
@@ -1793,13 +1793,13 @@
         <v>4.33</v>
       </c>
       <c r="J7">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="K7">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.61</v>
       </c>
       <c r="M7">
         <v>1.5</v>
@@ -2055,13 +2055,13 @@
         <v>5.5</v>
       </c>
       <c r="J9">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.84</v>
       </c>
       <c r="L9">
-        <v>4.8</v>
+        <v>4.68</v>
       </c>
       <c r="M9">
         <v>1.33</v>
@@ -2082,10 +2082,10 @@
         <v>4.33</v>
       </c>
       <c r="S9">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U9">
         <v>1.8</v>
@@ -2213,10 +2213,10 @@
         <v>3.29</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="T10">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U10">
         <v>1.75</v>
@@ -2344,10 +2344,10 @@
         <v>5.05</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="T11">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="U11">
         <v>1.42</v>
@@ -2606,10 +2606,10 @@
         <v>2.15</v>
       </c>
       <c r="S13">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="T13">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U13">
         <v>2.36</v>
@@ -2642,19 +2642,19 @@
         <v>2.66</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AJ13">
         <v>1.67</v>
@@ -2663,22 +2663,22 @@
         <v>2.1</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2710,13 +2710,13 @@
         <v>4.33</v>
       </c>
       <c r="J14">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="K14">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L14">
-        <v>3.94</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
         <v>1.35</v>
@@ -3234,13 +3234,13 @@
         <v>3.1</v>
       </c>
       <c r="J18">
+        <v>2.45</v>
+      </c>
+      <c r="K18">
+        <v>3.25</v>
+      </c>
+      <c r="L18">
         <v>2.5</v>
-      </c>
-      <c r="K18">
-        <v>3.35</v>
-      </c>
-      <c r="L18">
-        <v>2.55</v>
       </c>
       <c r="M18">
         <v>1.25</v>
@@ -3261,10 +3261,10 @@
         <v>5.05</v>
       </c>
       <c r="S18">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U18">
         <v>1.43</v>
@@ -3368,10 +3368,10 @@
         <v>1.35</v>
       </c>
       <c r="K19">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M19">
         <v>1.25</v>
@@ -3392,10 +3392,10 @@
         <v>4.6</v>
       </c>
       <c r="S19">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="T19">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="U19">
         <v>1.89</v>
@@ -3496,13 +3496,13 @@
         <v>4.33</v>
       </c>
       <c r="J20">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="K20">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="L20">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>1.44</v>
@@ -3523,10 +3523,10 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T20">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="U20">
         <v>1.92</v>
@@ -3627,13 +3627,13 @@
         <v>3.75</v>
       </c>
       <c r="J21">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K21">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L21">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M21">
         <v>1.44</v>
@@ -3654,10 +3654,10 @@
         <v>3.1</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T21">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="U21">
         <v>1.8</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K22">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -3889,13 +3889,13 @@
         <v>2.06</v>
       </c>
       <c r="J23">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K23">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="L23">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M23">
         <v>1.22</v>
@@ -3916,10 +3916,10 @@
         <v>6.09</v>
       </c>
       <c r="S23">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T23">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.48</v>
@@ -5059,52 +5059,52 @@
         <v>176</v>
       </c>
       <c r="G32">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="H32">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="I32">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="J32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="K32">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L32">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="S32">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="T32">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U32">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V32">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W32">
         <v>1.25</v>
@@ -5330,7 +5330,7 @@
         <v>3.25</v>
       </c>
       <c r="J34">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="K34">
         <v>3.7</v>
@@ -5357,10 +5357,10 @@
         <v>5.7</v>
       </c>
       <c r="S34">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="T34">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U34">
         <v>1.4</v>
@@ -5461,13 +5461,13 @@
         <v>4.18</v>
       </c>
       <c r="J35">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="K35">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
         <v>1.41</v>
@@ -5488,10 +5488,10 @@
         <v>3.1</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T35">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="U35">
         <v>1.8</v>
@@ -5592,13 +5592,13 @@
         <v>4</v>
       </c>
       <c r="J36">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K36">
+        <v>3.1</v>
+      </c>
+      <c r="L36">
         <v>3.25</v>
-      </c>
-      <c r="L36">
-        <v>3.5</v>
       </c>
       <c r="M36">
         <v>1.42</v>
@@ -5619,10 +5619,10 @@
         <v>3.33</v>
       </c>
       <c r="S36">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U36">
         <v>1.8</v>
@@ -5723,13 +5723,13 @@
         <v>3.4</v>
       </c>
       <c r="J37">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K37">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M37">
         <v>1.38</v>
@@ -5753,7 +5753,7 @@
         <v>1.8</v>
       </c>
       <c r="T37">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U37">
         <v>1.65</v>
@@ -5845,22 +5845,22 @@
         <v>182</v>
       </c>
       <c r="G38">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H38">
         <v>2.05</v>
       </c>
       <c r="I38">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J38">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="K38">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="L38">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="M38">
         <v>1.44</v>
@@ -5881,10 +5881,10 @@
         <v>2.93</v>
       </c>
       <c r="S38">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="T38">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U38">
         <v>1.95</v>
@@ -5988,10 +5988,10 @@
         <v>1.53</v>
       </c>
       <c r="K39">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="L39">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="M39">
         <v>1.29</v>
@@ -6012,10 +6012,10 @@
         <v>4.75</v>
       </c>
       <c r="S39">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="T39">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="U39">
         <v>1.7</v>
@@ -6107,22 +6107,22 @@
         <v>184</v>
       </c>
       <c r="G40">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J40">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="K40">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L40">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="M40">
         <v>1.5</v>
@@ -6143,10 +6143,10 @@
         <v>2.8</v>
       </c>
       <c r="S40">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="T40">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U40">
         <v>2</v>
@@ -6378,13 +6378,13 @@
         <v>2.5</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>2.71</v>
       </c>
       <c r="K42">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L42">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="M42">
         <v>1.44</v>
@@ -6405,16 +6405,16 @@
         <v>3</v>
       </c>
       <c r="S42">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="T42">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U42">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
         <v>1.83</v>
@@ -6509,13 +6509,13 @@
         <v>3.75</v>
       </c>
       <c r="J43">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="L43">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="M43">
         <v>1.5</v>
@@ -6536,10 +6536,10 @@
         <v>2.7</v>
       </c>
       <c r="S43">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="T43">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U43">
         <v>2.1</v>
@@ -6640,13 +6640,13 @@
         <v>2.2</v>
       </c>
       <c r="J44">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K44">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L44">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M44">
         <v>1.38</v>
@@ -6667,10 +6667,10 @@
         <v>3.65</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T44">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U44">
         <v>1.85</v>
@@ -6771,13 +6771,13 @@
         <v>3.4</v>
       </c>
       <c r="J45">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K45">
         <v>3.25</v>
       </c>
       <c r="L45">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="M45">
         <v>1.44</v>
@@ -6798,10 +6798,10 @@
         <v>3.1</v>
       </c>
       <c r="S45">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U45">
         <v>1.8</v>
@@ -6902,13 +6902,13 @@
         <v>4.33</v>
       </c>
       <c r="J46">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="K46">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
         <v>1.36</v>
@@ -6929,10 +6929,10 @@
         <v>4</v>
       </c>
       <c r="S46">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U46">
         <v>1.7</v>
@@ -7024,7 +7024,7 @@
         <v>191</v>
       </c>
       <c r="G47">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H47">
         <v>2.2</v>
@@ -7033,13 +7033,13 @@
         <v>5.5</v>
       </c>
       <c r="J47">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="K47">
-        <v>3.4</v>
+        <v>3.51</v>
       </c>
       <c r="L47">
-        <v>5.5</v>
+        <v>5.84</v>
       </c>
       <c r="M47">
         <v>1.44</v>
@@ -7060,10 +7060,10 @@
         <v>3.1</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T47">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="U47">
         <v>1.95</v>
@@ -7164,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="K48">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L48">
         <v>2.6</v>
@@ -7191,10 +7191,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T48">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -7295,13 +7295,13 @@
         <v>3.75</v>
       </c>
       <c r="J49">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M49">
         <v>1.57</v>
@@ -7322,10 +7322,10 @@
         <v>2.46</v>
       </c>
       <c r="S49">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="T49">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U49">
         <v>2.04</v>
@@ -7426,13 +7426,13 @@
         <v>6</v>
       </c>
       <c r="J50">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K50">
-        <v>3.5</v>
+        <v>3.18</v>
       </c>
       <c r="L50">
-        <v>5.25</v>
+        <v>4.9</v>
       </c>
       <c r="M50">
         <v>1.48</v>
@@ -7453,10 +7453,10 @@
         <v>2.71</v>
       </c>
       <c r="S50">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="T50">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U50">
         <v>2.12</v>
@@ -7620,13 +7620,13 @@
         <v>2.56</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH51">
         <v>1.21</v>
@@ -7688,13 +7688,13 @@
         <v>2.75</v>
       </c>
       <c r="J52">
-        <v>4</v>
+        <v>3.17</v>
       </c>
       <c r="K52">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="L52">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="M52">
         <v>1.54</v>
@@ -7715,10 +7715,10 @@
         <v>2.54</v>
       </c>
       <c r="S52">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T52">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U52">
         <v>2.09</v>
@@ -7819,13 +7819,13 @@
         <v>3.2</v>
       </c>
       <c r="J53">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="K53">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="L53">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="M53">
         <v>1.38</v>
@@ -7846,10 +7846,10 @@
         <v>3.2</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T53">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="U53">
         <v>1.73</v>
@@ -7950,13 +7950,13 @@
         <v>4.33</v>
       </c>
       <c r="J54">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="K54">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="M54">
         <v>1.57</v>
@@ -7977,10 +7977,10 @@
         <v>2.46</v>
       </c>
       <c r="S54">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="T54">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U54">
         <v>2.09</v>

--- a/Jogos_do_Dia/2024-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -148,12 +148,12 @@
     <t>China Chinese Super League</t>
   </si>
   <si>
+    <t>Serbia SuperLiga</t>
+  </si>
+  <si>
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>Serbia SuperLiga</t>
-  </si>
-  <si>
     <t>Slovakia Super Liga</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>Denmark Superliga</t>
   </si>
   <si>
+    <t>Romania Liga I</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
@@ -193,15 +193,15 @@
     <t>Switzerland Challenge League</t>
   </si>
   <si>
+    <t>Italy Serie B</t>
+  </si>
+  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
-    <t>Italy Serie B</t>
-  </si>
-  <si>
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
@@ -211,15 +211,15 @@
     <t>Belgium Pro League</t>
   </si>
   <si>
+    <t>France Ligue 1</t>
+  </si>
+  <si>
     <t>England Championship</t>
   </si>
   <si>
     <t>Spain La Liga</t>
   </si>
   <si>
-    <t>France Ligue 1</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -301,27 +301,27 @@
     <t>Sichuan Jiuniu</t>
   </si>
   <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
+    <t>Changchun Yatai</t>
+  </si>
+  <si>
     <t>Zhejiang FC</t>
   </si>
   <si>
     <t>Wuhan Three Towns</t>
   </si>
   <si>
-    <t>Shijiazhuang Ever Bright</t>
-  </si>
-  <si>
-    <t>Changchun Yatai</t>
-  </si>
-  <si>
     <t>Chengdu Better City FC</t>
   </si>
   <si>
+    <t>Voždovac</t>
+  </si>
+  <si>
     <t>Inter Turku</t>
   </si>
   <si>
-    <t>Voždovac</t>
-  </si>
-  <si>
     <t>Zemplín Michalovce</t>
   </si>
   <si>
@@ -349,45 +349,51 @@
     <t>St. Pauli</t>
   </si>
   <si>
+    <t>Čukarički</t>
+  </si>
+  <si>
     <t>OFK Pirin</t>
   </si>
   <si>
     <t>Lyngby</t>
   </si>
   <si>
-    <t>Čukarički</t>
+    <t>Dinamo Bucureşti</t>
   </si>
   <si>
     <t>Adana Demirspor</t>
   </si>
   <si>
-    <t>Dinamo Bucureşti</t>
-  </si>
-  <si>
     <t>Austria Wien</t>
   </si>
   <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Ajax II</t>
+  </si>
+  <si>
     <t>De Graafschap</t>
   </si>
   <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Ajax II</t>
-  </si>
-  <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>VVV</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
     <t>Aarau</t>
   </si>
   <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
     <t>Jagiellonia Białystok</t>
   </si>
   <si>
@@ -397,28 +403,28 @@
     <t>FC Andorra</t>
   </si>
   <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Venezia</t>
+    <t>Waterford</t>
   </si>
   <si>
     <t>Dundalk</t>
   </si>
   <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
     <t>Frosinone</t>
   </si>
   <si>
+    <t>AS Eupen</t>
+  </si>
+  <si>
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>AS Eupen</t>
-  </si>
-  <si>
-    <t>Waterford</t>
-  </si>
-  <si>
-    <t>Shelbourne</t>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
   </si>
   <si>
     <t>Queens Park Rangers</t>
@@ -427,12 +433,6 @@
     <t>Real Sociedad</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>Gil Vicente</t>
   </si>
   <si>
@@ -460,27 +460,27 @@
     <t>Qingdao Jonoon</t>
   </si>
   <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
     <t>Tianjin Teda</t>
   </si>
   <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
-    <t>Meizhou Hakka</t>
-  </si>
-  <si>
     <t>Shandong Luneng</t>
   </si>
   <si>
+    <t>Spartak Subotica</t>
+  </si>
+  <si>
     <t>EIF</t>
   </si>
   <si>
-    <t>Spartak Subotica</t>
-  </si>
-  <si>
     <t>Dukla Banská Bystrica</t>
   </si>
   <si>
@@ -508,45 +508,51 @@
     <t>Hansa Rostock</t>
   </si>
   <si>
+    <t>Mladost Lučani</t>
+  </si>
+  <si>
     <t>Botev Vratsa</t>
   </si>
   <si>
     <t>Vejle</t>
   </si>
   <si>
-    <t>Mladost Lučani</t>
+    <t>Voluntari</t>
   </si>
   <si>
     <t>Galatasaray</t>
   </si>
   <si>
-    <t>Voluntari</t>
-  </si>
-  <si>
     <t>Rheindorf Altach</t>
   </si>
   <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
     <t>MVV</t>
   </si>
   <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>AZ II</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
     <t>Bellinzona</t>
   </si>
   <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
     <t>Pogoń Szczecin</t>
   </si>
   <si>
@@ -556,40 +562,34 @@
     <t>Racing Santander</t>
   </si>
   <si>
-    <t>Catanzaro</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
+    <t>Derry City</t>
   </si>
   <si>
     <t>Bohemians</t>
   </si>
   <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
     <t>Salernitana</t>
   </si>
   <si>
+    <t>Sporting Charleroi</t>
+  </si>
+  <si>
     <t>Sligo Rovers</t>
   </si>
   <si>
-    <t>Sporting Charleroi</t>
-  </si>
-  <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Galway United</t>
   </si>
   <si>
     <t>Leeds United</t>
   </si>
   <si>
     <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Galway United</t>
   </si>
   <si>
     <t>FC Arouca</t>
@@ -1138,13 +1138,13 @@
         <v>3.75</v>
       </c>
       <c r="J2">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="K2">
-        <v>3.09</v>
+        <v>3.07</v>
       </c>
       <c r="L2">
-        <v>3.09</v>
+        <v>2.55</v>
       </c>
       <c r="M2">
         <v>1.44</v>
@@ -1165,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="U2">
         <v>1.91</v>
@@ -1186,10 +1186,10 @@
         <v>1.62</v>
       </c>
       <c r="Z2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AB2">
         <v>1.14</v>
@@ -1391,28 +1391,28 @@
         <v>148</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>3.11</v>
       </c>
       <c r="H4">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="I4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J4">
-        <v>2.39</v>
+        <v>2.52</v>
       </c>
       <c r="K4">
-        <v>3.22</v>
+        <v>3.42</v>
       </c>
       <c r="L4">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="N4">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="O4">
         <v>1.05</v>
@@ -1424,52 +1424,52 @@
         <v>1.28</v>
       </c>
       <c r="R4">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="S4">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="U4">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X4">
         <v>1.25</v>
       </c>
       <c r="Y4">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="Z4">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AB4">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AC4">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="AD4">
-        <v>2.85</v>
+        <v>2.27</v>
       </c>
       <c r="AE4">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AF4">
         <v>7.5</v>
       </c>
       <c r="AG4">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AH4">
         <v>1.31</v>
@@ -1522,115 +1522,115 @@
         <v>149</v>
       </c>
       <c r="G5">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="H5">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="I5">
-        <v>3.08</v>
+        <v>4.33</v>
       </c>
       <c r="J5">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="K5">
-        <v>3.29</v>
+        <v>3.25</v>
       </c>
       <c r="L5">
-        <v>2.61</v>
+        <v>3.53</v>
       </c>
       <c r="M5">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="N5">
-        <v>2.99</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P5">
-        <v>9.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="R5">
-        <v>3.48</v>
+        <v>2.88</v>
       </c>
       <c r="S5">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="T5">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="U5">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="X5">
         <v>1.28</v>
       </c>
       <c r="Y5">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="Z5">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2.25</v>
+        <v>0.67</v>
       </c>
       <c r="AB5">
-        <v>1.86</v>
+        <v>0.98</v>
       </c>
       <c r="AC5">
-        <v>1.52</v>
+        <v>0.79</v>
       </c>
       <c r="AD5">
-        <v>3.38</v>
+        <v>1.77</v>
       </c>
       <c r="AE5">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AF5">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AH5">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AI5">
-        <v>3.35</v>
+        <v>2.9</v>
       </c>
       <c r="AJ5">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AK5">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="AL5">
-        <v>1.99</v>
+        <v>2.13</v>
       </c>
       <c r="AM5">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AN5">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="AO5">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AP5">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AQ5">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1653,28 +1653,28 @@
         <v>150</v>
       </c>
       <c r="G6">
-        <v>3.11</v>
+        <v>3.4</v>
       </c>
       <c r="H6">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J6">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="K6">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="L6">
-        <v>2.69</v>
+        <v>2.1</v>
       </c>
       <c r="M6">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="N6">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="O6">
         <v>1.05</v>
@@ -1686,52 +1686,52 @@
         <v>1.28</v>
       </c>
       <c r="R6">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T6">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U6">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V6">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W6">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X6">
         <v>1.25</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Z6">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA6">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="AC6">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="AD6">
-        <v>2.27</v>
+        <v>2.85</v>
       </c>
       <c r="AE6">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AF6">
         <v>7.5</v>
       </c>
       <c r="AG6">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AH6">
         <v>1.31</v>
@@ -1784,115 +1784,115 @@
         <v>151</v>
       </c>
       <c r="G7">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="H7">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="I7">
-        <v>4.33</v>
+        <v>3.08</v>
       </c>
       <c r="J7">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="K7">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="L7">
-        <v>3.61</v>
+        <v>2.5</v>
       </c>
       <c r="M7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>2.99</v>
       </c>
       <c r="O7">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P7">
-        <v>7.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q7">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="R7">
-        <v>2.88</v>
+        <v>3.48</v>
       </c>
       <c r="S7">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="W7">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="X7">
         <v>1.28</v>
       </c>
       <c r="Y7">
+        <v>1.48</v>
+      </c>
+      <c r="Z7">
+        <v>0.33</v>
+      </c>
+      <c r="AA7">
+        <v>2.25</v>
+      </c>
+      <c r="AB7">
+        <v>1.86</v>
+      </c>
+      <c r="AC7">
+        <v>1.52</v>
+      </c>
+      <c r="AD7">
+        <v>3.38</v>
+      </c>
+      <c r="AE7">
+        <v>1.91</v>
+      </c>
+      <c r="AF7">
+        <v>8</v>
+      </c>
+      <c r="AG7">
+        <v>2.2</v>
+      </c>
+      <c r="AH7">
+        <v>1.28</v>
+      </c>
+      <c r="AI7">
+        <v>3.35</v>
+      </c>
+      <c r="AJ7">
+        <v>1.53</v>
+      </c>
+      <c r="AK7">
+        <v>2.33</v>
+      </c>
+      <c r="AL7">
+        <v>1.99</v>
+      </c>
+      <c r="AM7">
         <v>1.73</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0.67</v>
-      </c>
-      <c r="AB7">
-        <v>0.98</v>
-      </c>
-      <c r="AC7">
-        <v>0.79</v>
-      </c>
-      <c r="AD7">
-        <v>1.77</v>
-      </c>
-      <c r="AE7">
-        <v>1.83</v>
-      </c>
-      <c r="AF7">
-        <v>7.5</v>
-      </c>
-      <c r="AG7">
-        <v>2.3</v>
-      </c>
-      <c r="AH7">
-        <v>1.36</v>
-      </c>
-      <c r="AI7">
-        <v>2.9</v>
-      </c>
-      <c r="AJ7">
-        <v>1.67</v>
-      </c>
-      <c r="AK7">
-        <v>2.07</v>
-      </c>
-      <c r="AL7">
-        <v>2.13</v>
-      </c>
-      <c r="AM7">
-        <v>1.63</v>
-      </c>
       <c r="AN7">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="AO7">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AP7">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2037,7 +2037,7 @@
         <v>76</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>100</v>
@@ -2046,112 +2046,112 @@
         <v>153</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>2.1</v>
       </c>
-      <c r="H9">
-        <v>2.38</v>
-      </c>
       <c r="I9">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
-        <v>1.46</v>
+        <v>2.22</v>
       </c>
       <c r="K9">
-        <v>3.84</v>
+        <v>3.08</v>
       </c>
       <c r="L9">
-        <v>4.68</v>
+        <v>2.67</v>
       </c>
       <c r="M9">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>7.95</v>
       </c>
       <c r="Q9">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R9">
-        <v>4.33</v>
+        <v>3.29</v>
       </c>
       <c r="S9">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W9">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="X9">
         <v>1.25</v>
       </c>
       <c r="Y9">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AB9">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="AC9">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AD9">
-        <v>2.59</v>
+        <v>2.87</v>
       </c>
       <c r="AE9">
-        <v>1.51</v>
+        <v>2.16</v>
       </c>
       <c r="AF9">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9">
-        <v>3.16</v>
+        <v>2.01</v>
       </c>
       <c r="AH9">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AI9">
-        <v>3.65</v>
+        <v>3.11</v>
       </c>
       <c r="AJ9">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AK9">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AL9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AM9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AN9">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="AO9">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AP9">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="AQ9">
         <v>1.3</v>
@@ -2168,7 +2168,7 @@
         <v>76</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
@@ -2177,115 +2177,115 @@
         <v>154</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H10">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I10">
+        <v>5.5</v>
+      </c>
+      <c r="J10">
+        <v>1.33</v>
+      </c>
+      <c r="K10">
+        <v>4.65</v>
+      </c>
+      <c r="L10">
+        <v>6.6</v>
+      </c>
+      <c r="M10">
+        <v>1.33</v>
+      </c>
+      <c r="N10">
         <v>3.25</v>
       </c>
-      <c r="J10">
-        <v>2.4</v>
-      </c>
-      <c r="K10">
-        <v>3.4</v>
-      </c>
-      <c r="L10">
-        <v>2.75</v>
-      </c>
-      <c r="M10">
-        <v>1.4</v>
-      </c>
-      <c r="N10">
-        <v>2.75</v>
-      </c>
       <c r="O10">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P10">
-        <v>7.95</v>
+        <v>13</v>
       </c>
       <c r="Q10">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="R10">
-        <v>3.29</v>
+        <v>4.33</v>
       </c>
       <c r="S10">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="T10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="X10">
         <v>1.25</v>
       </c>
       <c r="Y10">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Z10">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1.58</v>
+        <v>1.15</v>
       </c>
       <c r="AC10">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AD10">
-        <v>2.87</v>
+        <v>2.59</v>
       </c>
       <c r="AE10">
-        <v>2.16</v>
+        <v>1.51</v>
       </c>
       <c r="AF10">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AG10">
-        <v>2.01</v>
+        <v>3.16</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AM10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2317,13 +2317,13 @@
         <v>3.24</v>
       </c>
       <c r="J11">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L11">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="M11">
         <v>1.38</v>
@@ -2380,43 +2380,43 @@
         <v>2.75</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2544,10 +2544,10 @@
         <v>1.3</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2579,13 +2579,13 @@
         <v>5.7</v>
       </c>
       <c r="J13">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="L13">
-        <v>4.2</v>
+        <v>3.83</v>
       </c>
       <c r="M13">
         <v>1.62</v>
@@ -2600,10 +2600,10 @@
         <v>5.75</v>
       </c>
       <c r="Q13">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R13">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S13">
         <v>2.75</v>
@@ -2710,13 +2710,13 @@
         <v>4.33</v>
       </c>
       <c r="J14">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="K14">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
         <v>1.35</v>
@@ -2737,10 +2737,10 @@
         <v>3.64</v>
       </c>
       <c r="S14">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="T14">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="U14">
         <v>1.66</v>
@@ -2904,43 +2904,43 @@
         <v>2.58</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2963,22 +2963,22 @@
         <v>160</v>
       </c>
       <c r="G16">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H16">
+        <v>2.25</v>
+      </c>
+      <c r="I16">
         <v>2.2</v>
-      </c>
-      <c r="I16">
-        <v>2.38</v>
       </c>
       <c r="J16">
         <v>3.9</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="M16">
         <v>1.33</v>
@@ -2999,10 +2999,10 @@
         <v>3.6</v>
       </c>
       <c r="S16">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T16">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U16">
         <v>1.73</v>
@@ -3035,43 +3035,43 @@
         <v>2.79</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3094,22 +3094,22 @@
         <v>161</v>
       </c>
       <c r="G17">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="K17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M17">
         <v>1.29</v>
@@ -3130,16 +3130,16 @@
         <v>4.33</v>
       </c>
       <c r="S17">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T17">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V17">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>1.07</v>
@@ -3166,43 +3166,43 @@
         <v>2.99</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3234,13 +3234,13 @@
         <v>3.1</v>
       </c>
       <c r="J18">
-        <v>2.45</v>
+        <v>2.22</v>
       </c>
       <c r="K18">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="L18">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M18">
         <v>1.25</v>
@@ -3261,7 +3261,7 @@
         <v>5.05</v>
       </c>
       <c r="S18">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T18">
         <v>2.2</v>
@@ -3365,13 +3365,13 @@
         <v>6.4</v>
       </c>
       <c r="J19">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="K19">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L19">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="M19">
         <v>1.25</v>
@@ -3392,7 +3392,7 @@
         <v>4.6</v>
       </c>
       <c r="S19">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T19">
         <v>2.1</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
         <v>45408</v>
@@ -3478,7 +3478,7 @@
         <v>81</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>111</v>
@@ -3487,76 +3487,76 @@
         <v>164</v>
       </c>
       <c r="G20">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="K20">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M20">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T20">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="U20">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.93</v>
+        <v>1.93</v>
       </c>
       <c r="AA20">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>1.1</v>
+        <v>1.61</v>
       </c>
       <c r="AC20">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="AD20">
-        <v>2.19</v>
+        <v>2.57</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2">
         <v>45408</v>
@@ -3609,7 +3609,7 @@
         <v>81</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>112</v>
@@ -3618,13 +3618,13 @@
         <v>165</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H21">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I21">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J21">
         <v>2.15</v>
@@ -3639,99 +3639,99 @@
         <v>1.44</v>
       </c>
       <c r="N21">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="O21">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P21">
         <v>8</v>
       </c>
       <c r="Q21">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R21">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T21">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="W21">
+        <v>1.29</v>
+      </c>
+      <c r="X21">
         <v>1.33</v>
       </c>
-      <c r="X21">
-        <v>1.28</v>
-      </c>
       <c r="Y21">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Z21">
-        <v>1.38</v>
+        <v>0.93</v>
       </c>
       <c r="AA21">
-        <v>0.77</v>
+        <v>0.4</v>
       </c>
       <c r="AB21">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="AC21">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AD21">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="AE21">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="AF21">
         <v>8.5</v>
       </c>
       <c r="AG21">
-        <v>2.78</v>
+        <v>2.13</v>
       </c>
       <c r="AH21">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AI21">
-        <v>3.8</v>
+        <v>3.28</v>
       </c>
       <c r="AJ21">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AK21">
-        <v>2.65</v>
+        <v>2.36</v>
       </c>
       <c r="AL21">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="AM21">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AN21">
-        <v>2.15</v>
+        <v>2.46</v>
       </c>
       <c r="AO21">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AP21">
-        <v>2.8</v>
+        <v>3.34</v>
       </c>
       <c r="AQ21">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
         <v>45408</v>
@@ -3740,7 +3740,7 @@
         <v>81</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>113</v>
@@ -3749,115 +3749,115 @@
         <v>166</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J22">
-        <v>1.57</v>
+        <v>2.22</v>
       </c>
       <c r="K22">
+        <v>3.3</v>
+      </c>
+      <c r="L22">
+        <v>2.78</v>
+      </c>
+      <c r="M22">
+        <v>1.44</v>
+      </c>
+      <c r="N22">
+        <v>2.63</v>
+      </c>
+      <c r="O22">
+        <v>1.07</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>1.35</v>
+      </c>
+      <c r="R22">
+        <v>3.1</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>1.8</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
+        <v>1.95</v>
+      </c>
+      <c r="W22">
+        <v>1.33</v>
+      </c>
+      <c r="X22">
+        <v>1.28</v>
+      </c>
+      <c r="Y22">
+        <v>1.62</v>
+      </c>
+      <c r="Z22">
+        <v>1.38</v>
+      </c>
+      <c r="AA22">
+        <v>0.77</v>
+      </c>
+      <c r="AB22">
+        <v>1.35</v>
+      </c>
+      <c r="AC22">
+        <v>1.15</v>
+      </c>
+      <c r="AD22">
+        <v>2.5</v>
+      </c>
+      <c r="AE22">
+        <v>1.59</v>
+      </c>
+      <c r="AF22">
+        <v>8.5</v>
+      </c>
+      <c r="AG22">
+        <v>2.78</v>
+      </c>
+      <c r="AH22">
+        <v>1.21</v>
+      </c>
+      <c r="AI22">
         <v>3.8</v>
       </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>1.93</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
+      <c r="AJ22">
+        <v>1.4</v>
+      </c>
+      <c r="AK22">
+        <v>2.65</v>
+      </c>
+      <c r="AL22">
+        <v>1.7</v>
+      </c>
+      <c r="AM22">
+        <v>2.05</v>
+      </c>
+      <c r="AN22">
+        <v>2.15</v>
+      </c>
+      <c r="AO22">
         <v>1.61</v>
       </c>
-      <c r="AC22">
-        <v>0.96</v>
-      </c>
-      <c r="AD22">
-        <v>2.57</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3871,7 +3871,7 @@
         <v>81</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>114</v>
@@ -3880,115 +3880,115 @@
         <v>167</v>
       </c>
       <c r="G23">
-        <v>5.02</v>
+        <v>2.9</v>
       </c>
       <c r="H23">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="I23">
-        <v>2.06</v>
+        <v>3.75</v>
       </c>
       <c r="J23">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="K23">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>1.57</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="N23">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="O23">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P23">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="Q23">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="R23">
-        <v>6.09</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="U23">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="W23">
+        <v>1.38</v>
+      </c>
+      <c r="X23">
+        <v>1.33</v>
+      </c>
+      <c r="Y23">
+        <v>1.62</v>
+      </c>
+      <c r="Z23">
+        <v>1.29</v>
+      </c>
+      <c r="AA23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB23">
+        <v>1.41</v>
+      </c>
+      <c r="AC23">
+        <v>1.27</v>
+      </c>
+      <c r="AD23">
+        <v>2.68</v>
+      </c>
+      <c r="AE23">
+        <v>1.56</v>
+      </c>
+      <c r="AF23">
+        <v>8.6</v>
+      </c>
+      <c r="AG23">
+        <v>2.88</v>
+      </c>
+      <c r="AH23">
+        <v>1.43</v>
+      </c>
+      <c r="AI23">
+        <v>2.54</v>
+      </c>
+      <c r="AJ23">
+        <v>1.79</v>
+      </c>
+      <c r="AK23">
+        <v>1.92</v>
+      </c>
+      <c r="AL23">
         <v>2.3</v>
       </c>
-      <c r="X23">
-        <v>1.2</v>
-      </c>
-      <c r="Y23">
-        <v>1.2</v>
-      </c>
-      <c r="Z23">
-        <v>1.94</v>
-      </c>
-      <c r="AA23">
-        <v>2.44</v>
-      </c>
-      <c r="AB23">
-        <v>1.5</v>
-      </c>
-      <c r="AC23">
-        <v>1.73</v>
-      </c>
-      <c r="AD23">
-        <v>3.23</v>
-      </c>
-      <c r="AE23">
-        <v>4</v>
-      </c>
-      <c r="AF23">
-        <v>8.5</v>
-      </c>
-      <c r="AG23">
-        <v>1.35</v>
-      </c>
-      <c r="AH23">
-        <v>1.24</v>
-      </c>
-      <c r="AI23">
-        <v>3.55</v>
-      </c>
-      <c r="AJ23">
-        <v>1.45</v>
-      </c>
-      <c r="AK23">
-        <v>2.5</v>
-      </c>
-      <c r="AL23">
-        <v>1.77</v>
-      </c>
       <c r="AM23">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AN23">
-        <v>2.28</v>
+        <v>3.18</v>
       </c>
       <c r="AO23">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>4.24</v>
       </c>
       <c r="AQ23">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -4002,7 +4002,7 @@
         <v>81</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>115</v>
@@ -4011,115 +4011,115 @@
         <v>168</v>
       </c>
       <c r="G24">
-        <v>2.9</v>
+        <v>5.02</v>
       </c>
       <c r="H24">
-        <v>2.05</v>
+        <v>2.77</v>
       </c>
       <c r="I24">
-        <v>3.75</v>
+        <v>2.06</v>
       </c>
       <c r="J24">
-        <v>2.2</v>
+        <v>4.45</v>
       </c>
       <c r="K24">
-        <v>3.2</v>
+        <v>4.45</v>
       </c>
       <c r="L24">
-        <v>2.87</v>
+        <v>1.52</v>
       </c>
       <c r="M24">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="N24">
-        <v>2.62</v>
+        <v>3.8</v>
       </c>
       <c r="O24">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P24">
+        <v>26</v>
+      </c>
+      <c r="Q24">
+        <v>1.11</v>
+      </c>
+      <c r="R24">
+        <v>6.09</v>
+      </c>
+      <c r="S24">
+        <v>1.4</v>
+      </c>
+      <c r="T24">
+        <v>2.75</v>
+      </c>
+      <c r="U24">
+        <v>1.48</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>2.3</v>
+      </c>
+      <c r="X24">
+        <v>1.2</v>
+      </c>
+      <c r="Y24">
+        <v>1.2</v>
+      </c>
+      <c r="Z24">
+        <v>1.94</v>
+      </c>
+      <c r="AA24">
+        <v>2.44</v>
+      </c>
+      <c r="AB24">
+        <v>1.5</v>
+      </c>
+      <c r="AC24">
+        <v>1.73</v>
+      </c>
+      <c r="AD24">
+        <v>3.23</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+      <c r="AF24">
         <v>8.5</v>
       </c>
-      <c r="Q24">
-        <v>1.33</v>
-      </c>
-      <c r="R24">
+      <c r="AG24">
+        <v>1.35</v>
+      </c>
+      <c r="AH24">
+        <v>1.24</v>
+      </c>
+      <c r="AI24">
+        <v>3.55</v>
+      </c>
+      <c r="AJ24">
+        <v>1.45</v>
+      </c>
+      <c r="AK24">
+        <v>2.5</v>
+      </c>
+      <c r="AL24">
+        <v>1.77</v>
+      </c>
+      <c r="AM24">
+        <v>1.91</v>
+      </c>
+      <c r="AN24">
+        <v>2.28</v>
+      </c>
+      <c r="AO24">
+        <v>1.55</v>
+      </c>
+      <c r="AP24">
         <v>3</v>
       </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>1.67</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>1.91</v>
-      </c>
-      <c r="W24">
-        <v>1.38</v>
-      </c>
-      <c r="X24">
-        <v>1.33</v>
-      </c>
-      <c r="Y24">
-        <v>1.62</v>
-      </c>
-      <c r="Z24">
-        <v>1.29</v>
-      </c>
-      <c r="AA24">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB24">
-        <v>1.41</v>
-      </c>
-      <c r="AC24">
-        <v>1.27</v>
-      </c>
-      <c r="AD24">
-        <v>2.68</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -4178,10 +4178,10 @@
         <v>3.35</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U25">
         <v>1.8</v>
@@ -4223,10 +4223,10 @@
         <v>2.78</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ25">
         <v>1.5</v>
@@ -4247,10 +4247,10 @@
         <v>1.6</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4273,115 +4273,115 @@
         <v>170</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H26">
-        <v>2.83</v>
+        <v>2.15</v>
       </c>
       <c r="I26">
-        <v>4.86</v>
+        <v>3</v>
       </c>
       <c r="J26">
-        <v>1.51</v>
+        <v>2.75</v>
       </c>
       <c r="K26">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="M26">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="N26">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="O26">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P26">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q26">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="R26">
-        <v>6.35</v>
+        <v>3.6</v>
       </c>
       <c r="S26">
+        <v>1.85</v>
+      </c>
+      <c r="T26">
+        <v>1.85</v>
+      </c>
+      <c r="U26">
+        <v>1.65</v>
+      </c>
+      <c r="V26">
+        <v>2.1</v>
+      </c>
+      <c r="W26">
+        <v>1.53</v>
+      </c>
+      <c r="X26">
+        <v>1.33</v>
+      </c>
+      <c r="Y26">
+        <v>1.44</v>
+      </c>
+      <c r="Z26">
+        <v>2.41</v>
+      </c>
+      <c r="AA26">
+        <v>1.88</v>
+      </c>
+      <c r="AB26">
+        <v>1.7</v>
+      </c>
+      <c r="AC26">
+        <v>1.61</v>
+      </c>
+      <c r="AD26">
+        <v>3.31</v>
+      </c>
+      <c r="AE26">
+        <v>2.27</v>
+      </c>
+      <c r="AF26">
+        <v>9.1</v>
+      </c>
+      <c r="AG26">
+        <v>1.8</v>
+      </c>
+      <c r="AH26">
+        <v>1.18</v>
+      </c>
+      <c r="AI26">
+        <v>4.5</v>
+      </c>
+      <c r="AJ26">
         <v>1.32</v>
       </c>
-      <c r="T26">
+      <c r="AK26">
         <v>2.98</v>
       </c>
-      <c r="U26">
+      <c r="AL26">
+        <v>1.64</v>
+      </c>
+      <c r="AM26">
+        <v>2.22</v>
+      </c>
+      <c r="AN26">
+        <v>2.02</v>
+      </c>
+      <c r="AO26">
+        <v>1.76</v>
+      </c>
+      <c r="AP26">
+        <v>2.54</v>
+      </c>
+      <c r="AQ26">
         <v>1.43</v>
-      </c>
-      <c r="V26">
-        <v>2.62</v>
-      </c>
-      <c r="W26">
-        <v>1.15</v>
-      </c>
-      <c r="X26">
-        <v>1.17</v>
-      </c>
-      <c r="Y26">
-        <v>2.47</v>
-      </c>
-      <c r="Z26">
-        <v>1.94</v>
-      </c>
-      <c r="AA26">
-        <v>1.41</v>
-      </c>
-      <c r="AB26">
-        <v>1.76</v>
-      </c>
-      <c r="AC26">
-        <v>1.3</v>
-      </c>
-      <c r="AD26">
-        <v>3.06</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4404,115 +4404,115 @@
         <v>171</v>
       </c>
       <c r="G27">
-        <v>2.79</v>
+        <v>3.2</v>
       </c>
       <c r="H27">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="I27">
-        <v>3.16</v>
+        <v>2.7</v>
       </c>
       <c r="J27">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K27">
-        <v>3.88</v>
+        <v>4.33</v>
       </c>
       <c r="L27">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="M27">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="N27">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
         <v>1.01</v>
       </c>
       <c r="P27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q27">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="R27">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="S27">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T27">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V27">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="W27">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="X27">
+        <v>1.26</v>
+      </c>
+      <c r="Y27">
+        <v>1.41</v>
+      </c>
+      <c r="Z27">
         <v>1.24</v>
       </c>
-      <c r="Y27">
-        <v>1.58</v>
-      </c>
-      <c r="Z27">
-        <v>1.29</v>
-      </c>
       <c r="AA27">
-        <v>1.59</v>
+        <v>0.82</v>
       </c>
       <c r="AB27">
-        <v>1.86</v>
+        <v>1.26</v>
       </c>
       <c r="AC27">
+        <v>1.38</v>
+      </c>
+      <c r="AD27">
+        <v>2.64</v>
+      </c>
+      <c r="AE27">
+        <v>2.1</v>
+      </c>
+      <c r="AF27">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG27">
+        <v>1.94</v>
+      </c>
+      <c r="AH27">
+        <v>1.22</v>
+      </c>
+      <c r="AI27">
+        <v>3.65</v>
+      </c>
+      <c r="AJ27">
+        <v>1.42</v>
+      </c>
+      <c r="AK27">
+        <v>2.57</v>
+      </c>
+      <c r="AL27">
+        <v>1.76</v>
+      </c>
+      <c r="AM27">
+        <v>1.95</v>
+      </c>
+      <c r="AN27">
+        <v>2.21</v>
+      </c>
+      <c r="AO27">
         <v>1.56</v>
       </c>
-      <c r="AD27">
-        <v>3.42</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
       <c r="AP27">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4535,115 +4535,115 @@
         <v>172</v>
       </c>
       <c r="G28">
+        <v>2.3</v>
+      </c>
+      <c r="H28">
+        <v>2.4</v>
+      </c>
+      <c r="I28">
+        <v>4.33</v>
+      </c>
+      <c r="J28">
+        <v>1.73</v>
+      </c>
+      <c r="K28">
         <v>4</v>
       </c>
-      <c r="H28">
-        <v>2.45</v>
-      </c>
-      <c r="I28">
+      <c r="L28">
+        <v>3.8</v>
+      </c>
+      <c r="M28">
+        <v>1.29</v>
+      </c>
+      <c r="N28">
+        <v>3.5</v>
+      </c>
+      <c r="O28">
+        <v>1.03</v>
+      </c>
+      <c r="P28">
+        <v>11</v>
+      </c>
+      <c r="Q28">
+        <v>1.16</v>
+      </c>
+      <c r="R28">
+        <v>4.25</v>
+      </c>
+      <c r="S28">
+        <v>1.6</v>
+      </c>
+      <c r="T28">
+        <v>2.3</v>
+      </c>
+      <c r="U28">
+        <v>1.62</v>
+      </c>
+      <c r="V28">
         <v>2.2</v>
       </c>
-      <c r="J28">
-        <v>3.77</v>
-      </c>
-      <c r="K28">
-        <v>3.98</v>
-      </c>
-      <c r="L28">
-        <v>1.74</v>
-      </c>
-      <c r="M28">
+      <c r="W28">
         <v>1.24</v>
       </c>
-      <c r="N28">
-        <v>3.75</v>
-      </c>
-      <c r="O28">
-        <v>1.01</v>
-      </c>
-      <c r="P28">
-        <v>23</v>
-      </c>
-      <c r="Q28">
-        <v>1.13</v>
-      </c>
-      <c r="R28">
-        <v>5.25</v>
-      </c>
-      <c r="S28">
-        <v>1.45</v>
-      </c>
-      <c r="T28">
+      <c r="X28">
+        <v>1.24</v>
+      </c>
+      <c r="Y28">
+        <v>1.95</v>
+      </c>
+      <c r="Z28">
+        <v>1.76</v>
+      </c>
+      <c r="AA28">
+        <v>0.88</v>
+      </c>
+      <c r="AB28">
+        <v>1.59</v>
+      </c>
+      <c r="AC28">
+        <v>1.1</v>
+      </c>
+      <c r="AD28">
+        <v>2.69</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>1.18</v>
+      </c>
+      <c r="AI28">
+        <v>4.5</v>
+      </c>
+      <c r="AJ28">
+        <v>1.32</v>
+      </c>
+      <c r="AK28">
+        <v>3.1</v>
+      </c>
+      <c r="AL28">
+        <v>1.64</v>
+      </c>
+      <c r="AM28">
+        <v>2.22</v>
+      </c>
+      <c r="AN28">
+        <v>2.03</v>
+      </c>
+      <c r="AO28">
+        <v>1.76</v>
+      </c>
+      <c r="AP28">
         <v>2.6</v>
       </c>
-      <c r="U28">
-        <v>1.45</v>
-      </c>
-      <c r="V28">
-        <v>2.55</v>
-      </c>
-      <c r="W28">
-        <v>2</v>
-      </c>
-      <c r="X28">
-        <v>1.2</v>
-      </c>
-      <c r="Y28">
-        <v>1.24</v>
-      </c>
-      <c r="Z28">
-        <v>1.65</v>
-      </c>
-      <c r="AA28">
-        <v>1.65</v>
-      </c>
-      <c r="AB28">
-        <v>1.57</v>
-      </c>
-      <c r="AC28">
-        <v>1.52</v>
-      </c>
-      <c r="AD28">
-        <v>3.09</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4666,115 +4666,115 @@
         <v>173</v>
       </c>
       <c r="G29">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="H29">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="I29">
-        <v>2.7</v>
+        <v>3.16</v>
       </c>
       <c r="J29">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="K29">
-        <v>4.33</v>
+        <v>3.88</v>
       </c>
       <c r="L29">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="M29">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="N29">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O29">
         <v>1.01</v>
       </c>
       <c r="P29">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q29">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="R29">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="S29">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="U29">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="V29">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="W29">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="X29">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="Y29">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="Z29">
+        <v>1.29</v>
+      </c>
+      <c r="AA29">
+        <v>1.59</v>
+      </c>
+      <c r="AB29">
+        <v>1.86</v>
+      </c>
+      <c r="AC29">
+        <v>1.56</v>
+      </c>
+      <c r="AD29">
+        <v>3.42</v>
+      </c>
+      <c r="AE29">
+        <v>1.99</v>
+      </c>
+      <c r="AF29">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG29">
+        <v>2.02</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1.24</v>
       </c>
-      <c r="AA29">
-        <v>0.82</v>
-      </c>
-      <c r="AB29">
-        <v>1.26</v>
-      </c>
-      <c r="AC29">
-        <v>1.38</v>
-      </c>
-      <c r="AD29">
-        <v>2.64</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4797,115 +4797,115 @@
         <v>174</v>
       </c>
       <c r="G30">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I30">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="J30">
-        <v>1.73</v>
+        <v>3.77</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>1.74</v>
       </c>
       <c r="M30">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O30">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q30">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="R30">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="S30">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="T30">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="U30">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="V30">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>1.2</v>
+      </c>
+      <c r="Y30">
         <v>1.24</v>
       </c>
-      <c r="X30">
-        <v>1.24</v>
-      </c>
-      <c r="Y30">
-        <v>1.95</v>
-      </c>
       <c r="Z30">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AA30">
-        <v>0.88</v>
+        <v>1.65</v>
       </c>
       <c r="AB30">
+        <v>1.57</v>
+      </c>
+      <c r="AC30">
+        <v>1.52</v>
+      </c>
+      <c r="AD30">
+        <v>3.09</v>
+      </c>
+      <c r="AE30">
+        <v>2.6</v>
+      </c>
+      <c r="AF30">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG30">
+        <v>1.63</v>
+      </c>
+      <c r="AH30">
+        <v>1.18</v>
+      </c>
+      <c r="AI30">
+        <v>4.5</v>
+      </c>
+      <c r="AJ30">
+        <v>1.33</v>
+      </c>
+      <c r="AK30">
+        <v>2.93</v>
+      </c>
+      <c r="AL30">
         <v>1.59</v>
       </c>
-      <c r="AC30">
-        <v>1.1</v>
-      </c>
-      <c r="AD30">
-        <v>2.69</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4928,115 +4928,115 @@
         <v>175</v>
       </c>
       <c r="G31">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>4.86</v>
       </c>
       <c r="J31">
-        <v>2.75</v>
+        <v>1.51</v>
       </c>
       <c r="K31">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="M31">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="N31">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="O31">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P31">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Q31">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="R31">
-        <v>3.6</v>
+        <v>6.35</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
       <c r="T31">
-        <v>1.85</v>
+        <v>2.98</v>
       </c>
       <c r="U31">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="V31">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="W31">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="X31">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="Y31">
-        <v>1.44</v>
+        <v>2.47</v>
       </c>
       <c r="Z31">
-        <v>2.41</v>
+        <v>1.94</v>
       </c>
       <c r="AA31">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="AB31">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AC31">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="AD31">
-        <v>3.31</v>
+        <v>3.06</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="32" spans="1:43">
@@ -5059,22 +5059,22 @@
         <v>176</v>
       </c>
       <c r="G32">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H32">
         <v>2.25</v>
       </c>
       <c r="I32">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K32">
         <v>3.4</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
         <v>1.32</v>
@@ -5095,10 +5095,10 @@
         <v>3.94</v>
       </c>
       <c r="S32">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T32">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U32">
         <v>1.62</v>
@@ -5131,13 +5131,13 @@
         <v>2.69</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -5146,33 +5146,33 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2">
         <v>45408</v>
@@ -5181,7 +5181,7 @@
         <v>85</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
@@ -5190,115 +5190,115 @@
         <v>177</v>
       </c>
       <c r="G33">
-        <v>2.61</v>
+        <v>2.85</v>
       </c>
       <c r="H33">
-        <v>2.54</v>
+        <v>2.15</v>
       </c>
       <c r="I33">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="J33">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K33">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L33">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="M33">
+        <v>1.38</v>
+      </c>
+      <c r="N33">
+        <v>2.9</v>
+      </c>
+      <c r="O33">
+        <v>1.02</v>
+      </c>
+      <c r="P33">
+        <v>9.5</v>
+      </c>
+      <c r="Q33">
+        <v>1.22</v>
+      </c>
+      <c r="R33">
+        <v>3.7</v>
+      </c>
+      <c r="S33">
+        <v>1.8</v>
+      </c>
+      <c r="T33">
+        <v>1.9</v>
+      </c>
+      <c r="U33">
+        <v>1.65</v>
+      </c>
+      <c r="V33">
+        <v>2.1</v>
+      </c>
+      <c r="W33">
         <v>1.27</v>
       </c>
-      <c r="N33">
-        <v>3.45</v>
-      </c>
-      <c r="O33">
-        <v>1.04</v>
-      </c>
-      <c r="P33">
-        <v>10</v>
-      </c>
-      <c r="Q33">
-        <v>1.18</v>
-      </c>
-      <c r="R33">
-        <v>4.5</v>
-      </c>
-      <c r="S33">
-        <v>1.57</v>
-      </c>
-      <c r="T33">
-        <v>2.38</v>
-      </c>
-      <c r="U33">
+      <c r="X33">
+        <v>1.32</v>
+      </c>
+      <c r="Y33">
+        <v>1.6</v>
+      </c>
+      <c r="Z33">
+        <v>2.12</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>1.49</v>
+      </c>
+      <c r="AC33">
+        <v>1.61</v>
+      </c>
+      <c r="AD33">
+        <v>3.1</v>
+      </c>
+      <c r="AE33">
+        <v>1.89</v>
+      </c>
+      <c r="AF33">
+        <v>7.4</v>
+      </c>
+      <c r="AG33">
+        <v>2.37</v>
+      </c>
+      <c r="AH33">
+        <v>1.24</v>
+      </c>
+      <c r="AI33">
+        <v>3.75</v>
+      </c>
+      <c r="AJ33">
         <v>1.45</v>
       </c>
-      <c r="V33">
-        <v>2.55</v>
-      </c>
-      <c r="W33">
-        <v>1.38</v>
-      </c>
-      <c r="X33">
-        <v>1.27</v>
-      </c>
-      <c r="Y33">
-        <v>1.7</v>
-      </c>
-      <c r="Z33">
-        <v>2.29</v>
-      </c>
-      <c r="AA33">
-        <v>1.71</v>
-      </c>
-      <c r="AB33">
-        <v>1.84</v>
-      </c>
-      <c r="AC33">
-        <v>1.59</v>
-      </c>
-      <c r="AD33">
-        <v>3.43</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AL33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AM33">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="34" spans="1:43">
@@ -5312,7 +5312,7 @@
         <v>85</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E34" t="s">
         <v>125</v>
@@ -5321,120 +5321,120 @@
         <v>178</v>
       </c>
       <c r="G34">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="H34">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="I34">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="L34">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="M34">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="N34">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="O34">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P34">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="Q34">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="R34">
-        <v>5.7</v>
+        <v>3.33</v>
       </c>
       <c r="S34">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="U34">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="X34">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Y34">
+        <v>1.6</v>
+      </c>
+      <c r="Z34">
+        <v>1.41</v>
+      </c>
+      <c r="AA34">
         <v>1.65</v>
       </c>
-      <c r="Z34">
-        <v>1.33</v>
-      </c>
-      <c r="AA34">
-        <v>1.33</v>
-      </c>
       <c r="AB34">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AC34">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="AD34">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AE34">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AF34">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG34">
-        <v>2.32</v>
+        <v>2.77</v>
       </c>
       <c r="AH34">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AI34">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="AJ34">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AK34">
-        <v>2.45</v>
+        <v>2.17</v>
       </c>
       <c r="AL34">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="AM34">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>2.23</v>
+        <v>2.85</v>
       </c>
       <c r="AO34">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AP34">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AQ34">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>45408</v>
@@ -5443,7 +5443,7 @@
         <v>85</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>126</v>
@@ -5452,120 +5452,120 @@
         <v>179</v>
       </c>
       <c r="G35">
-        <v>2.69</v>
+        <v>2.61</v>
       </c>
       <c r="H35">
-        <v>2.17</v>
+        <v>2.54</v>
       </c>
       <c r="I35">
-        <v>4.18</v>
+        <v>3.59</v>
       </c>
       <c r="J35">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>3.45</v>
       </c>
       <c r="O35">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P35">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q35">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="R35">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="S35">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="T35">
-        <v>1.57</v>
+        <v>2.35</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="W35">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="X35">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Y35">
         <v>1.7</v>
       </c>
       <c r="Z35">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AB35">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="AC35">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="AD35">
-        <v>2.62</v>
+        <v>3.43</v>
       </c>
       <c r="AE35">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AF35">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AG35">
-        <v>2.69</v>
+        <v>2.38</v>
       </c>
       <c r="AH35">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AI35">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="AJ35">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="AK35">
-        <v>2.25</v>
+        <v>3.34</v>
       </c>
       <c r="AL35">
-        <v>1.97</v>
+        <v>1.7</v>
       </c>
       <c r="AM35">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AN35">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="AO35">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="AP35">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="AQ35">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2">
         <v>45408</v>
@@ -5574,7 +5574,7 @@
         <v>85</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
         <v>127</v>
@@ -5583,115 +5583,115 @@
         <v>180</v>
       </c>
       <c r="G36">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H36">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J36">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="M36">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="N36">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="O36">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="Q36">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="R36">
-        <v>3.33</v>
+        <v>5.7</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="T36">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="U36">
+        <v>1.4</v>
+      </c>
+      <c r="V36">
+        <v>2.75</v>
+      </c>
+      <c r="W36">
+        <v>1.4</v>
+      </c>
+      <c r="X36">
+        <v>1.28</v>
+      </c>
+      <c r="Y36">
+        <v>1.65</v>
+      </c>
+      <c r="Z36">
+        <v>1.33</v>
+      </c>
+      <c r="AA36">
+        <v>1.33</v>
+      </c>
+      <c r="AB36">
+        <v>1.74</v>
+      </c>
+      <c r="AC36">
+        <v>1.26</v>
+      </c>
+      <c r="AD36">
+        <v>3</v>
+      </c>
+      <c r="AE36">
         <v>1.8</v>
       </c>
-      <c r="V36">
-        <v>1.9</v>
-      </c>
-      <c r="W36">
-        <v>1.27</v>
-      </c>
-      <c r="X36">
+      <c r="AF36">
+        <v>7.5</v>
+      </c>
+      <c r="AG36">
+        <v>2.32</v>
+      </c>
+      <c r="AH36">
+        <v>1.23</v>
+      </c>
+      <c r="AI36">
+        <v>3.4</v>
+      </c>
+      <c r="AJ36">
+        <v>1.45</v>
+      </c>
+      <c r="AK36">
+        <v>2.45</v>
+      </c>
+      <c r="AL36">
+        <v>1.78</v>
+      </c>
+      <c r="AM36">
+        <v>1.91</v>
+      </c>
+      <c r="AN36">
+        <v>2.23</v>
+      </c>
+      <c r="AO36">
+        <v>1.55</v>
+      </c>
+      <c r="AP36">
+        <v>2.9</v>
+      </c>
+      <c r="AQ36">
         <v>1.32</v>
-      </c>
-      <c r="Y36">
-        <v>1.6</v>
-      </c>
-      <c r="Z36">
-        <v>1.41</v>
-      </c>
-      <c r="AA36">
-        <v>1.65</v>
-      </c>
-      <c r="AB36">
-        <v>1.41</v>
-      </c>
-      <c r="AC36">
-        <v>1.16</v>
-      </c>
-      <c r="AD36">
-        <v>2.57</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>1.35</v>
-      </c>
-      <c r="AI36">
-        <v>3.05</v>
-      </c>
-      <c r="AJ36">
-        <v>1.64</v>
-      </c>
-      <c r="AK36">
-        <v>2.17</v>
-      </c>
-      <c r="AL36">
-        <v>2.1</v>
-      </c>
-      <c r="AM36">
-        <v>1.68</v>
-      </c>
-      <c r="AN36">
-        <v>2.85</v>
-      </c>
-      <c r="AO36">
-        <v>1.38</v>
-      </c>
-      <c r="AP36">
-        <v>4</v>
-      </c>
-      <c r="AQ36">
-        <v>1.22</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5705,7 +5705,7 @@
         <v>85</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
         <v>128</v>
@@ -5714,115 +5714,115 @@
         <v>181</v>
       </c>
       <c r="G37">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="H37">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="I37">
+        <v>4.18</v>
+      </c>
+      <c r="J37">
+        <v>2.11</v>
+      </c>
+      <c r="K37">
+        <v>3.22</v>
+      </c>
+      <c r="L37">
+        <v>3.07</v>
+      </c>
+      <c r="M37">
+        <v>1.41</v>
+      </c>
+      <c r="N37">
+        <v>2.5</v>
+      </c>
+      <c r="O37">
+        <v>1.06</v>
+      </c>
+      <c r="P37">
+        <v>8.5</v>
+      </c>
+      <c r="Q37">
+        <v>1.35</v>
+      </c>
+      <c r="R37">
+        <v>3.1</v>
+      </c>
+      <c r="S37">
+        <v>1.95</v>
+      </c>
+      <c r="T37">
+        <v>1.75</v>
+      </c>
+      <c r="U37">
+        <v>1.8</v>
+      </c>
+      <c r="V37">
+        <v>1.85</v>
+      </c>
+      <c r="W37">
+        <v>1.3</v>
+      </c>
+      <c r="X37">
+        <v>1.28</v>
+      </c>
+      <c r="Y37">
+        <v>1.7</v>
+      </c>
+      <c r="Z37">
+        <v>1.41</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1.42</v>
+      </c>
+      <c r="AC37">
+        <v>1.2</v>
+      </c>
+      <c r="AD37">
+        <v>2.62</v>
+      </c>
+      <c r="AE37">
+        <v>1.72</v>
+      </c>
+      <c r="AF37">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AG37">
+        <v>2.69</v>
+      </c>
+      <c r="AH37">
+        <v>1.35</v>
+      </c>
+      <c r="AI37">
+        <v>3.05</v>
+      </c>
+      <c r="AJ37">
+        <v>1.6</v>
+      </c>
+      <c r="AK37">
+        <v>2.25</v>
+      </c>
+      <c r="AL37">
+        <v>1.97</v>
+      </c>
+      <c r="AM37">
+        <v>1.78</v>
+      </c>
+      <c r="AN37">
+        <v>2.5</v>
+      </c>
+      <c r="AO37">
+        <v>1.48</v>
+      </c>
+      <c r="AP37">
         <v>3.4</v>
       </c>
-      <c r="J37">
-        <v>2.3</v>
-      </c>
-      <c r="K37">
-        <v>3.1</v>
-      </c>
-      <c r="L37">
-        <v>2.75</v>
-      </c>
-      <c r="M37">
-        <v>1.38</v>
-      </c>
-      <c r="N37">
-        <v>2.9</v>
-      </c>
-      <c r="O37">
-        <v>1.02</v>
-      </c>
-      <c r="P37">
-        <v>9.5</v>
-      </c>
-      <c r="Q37">
-        <v>1.22</v>
-      </c>
-      <c r="R37">
-        <v>3.7</v>
-      </c>
-      <c r="S37">
-        <v>1.8</v>
-      </c>
-      <c r="T37">
-        <v>1.85</v>
-      </c>
-      <c r="U37">
-        <v>1.65</v>
-      </c>
-      <c r="V37">
-        <v>2.1</v>
-      </c>
-      <c r="W37">
-        <v>1.27</v>
-      </c>
-      <c r="X37">
-        <v>1.32</v>
-      </c>
-      <c r="Y37">
-        <v>1.6</v>
-      </c>
-      <c r="Z37">
-        <v>2.12</v>
-      </c>
-      <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37">
-        <v>1.49</v>
-      </c>
-      <c r="AC37">
-        <v>1.61</v>
-      </c>
-      <c r="AD37">
-        <v>3.1</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>1.24</v>
-      </c>
-      <c r="AI37">
-        <v>3.75</v>
-      </c>
-      <c r="AJ37">
-        <v>1.45</v>
-      </c>
-      <c r="AK37">
-        <v>2.63</v>
-      </c>
-      <c r="AL37">
-        <v>1.82</v>
-      </c>
-      <c r="AM37">
-        <v>1.98</v>
-      </c>
-      <c r="AN37">
-        <v>2.33</v>
-      </c>
-      <c r="AO37">
-        <v>1.56</v>
-      </c>
-      <c r="AP37">
-        <v>3.2</v>
-      </c>
       <c r="AQ37">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5845,120 +5845,120 @@
         <v>182</v>
       </c>
       <c r="G38">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H38">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I38">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="J38">
-        <v>2.87</v>
+        <v>4.33</v>
       </c>
       <c r="K38">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>2.47</v>
+        <v>1.7</v>
       </c>
       <c r="M38">
         <v>1.44</v>
       </c>
       <c r="N38">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="O38">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P38">
         <v>8</v>
       </c>
       <c r="Q38">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="R38">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="S38">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="T38">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W38">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="X38">
         <v>1.25</v>
       </c>
       <c r="Y38">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="Z38">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AB38">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AC38">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AD38">
-        <v>2.29</v>
+        <v>2.7</v>
       </c>
       <c r="AE38">
-        <v>1.91</v>
+        <v>3.01</v>
       </c>
       <c r="AF38">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG38">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL38">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AM38">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2">
         <v>45408</v>
@@ -5967,7 +5967,7 @@
         <v>86</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>130</v>
@@ -5976,115 +5976,115 @@
         <v>183</v>
       </c>
       <c r="G39">
+        <v>3.5</v>
+      </c>
+      <c r="H39">
+        <v>2.05</v>
+      </c>
+      <c r="I39">
+        <v>3.25</v>
+      </c>
+      <c r="J39">
+        <v>3.1</v>
+      </c>
+      <c r="K39">
+        <v>3.25</v>
+      </c>
+      <c r="L39">
+        <v>2.38</v>
+      </c>
+      <c r="M39">
+        <v>1.44</v>
+      </c>
+      <c r="N39">
+        <v>2.67</v>
+      </c>
+      <c r="O39">
+        <v>1.03</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <v>1.33</v>
+      </c>
+      <c r="R39">
+        <v>2.93</v>
+      </c>
+      <c r="S39">
+        <v>2.2</v>
+      </c>
+      <c r="T39">
+        <v>1.65</v>
+      </c>
+      <c r="U39">
+        <v>1.91</v>
+      </c>
+      <c r="V39">
+        <v>1.91</v>
+      </c>
+      <c r="W39">
+        <v>1.53</v>
+      </c>
+      <c r="X39">
+        <v>1.25</v>
+      </c>
+      <c r="Y39">
+        <v>1.42</v>
+      </c>
+      <c r="Z39">
+        <v>0.6</v>
+      </c>
+      <c r="AA39">
+        <v>1.8</v>
+      </c>
+      <c r="AB39">
+        <v>1.21</v>
+      </c>
+      <c r="AC39">
+        <v>1.08</v>
+      </c>
+      <c r="AD39">
+        <v>2.29</v>
+      </c>
+      <c r="AE39">
+        <v>1.87</v>
+      </c>
+      <c r="AF39">
+        <v>7.1</v>
+      </c>
+      <c r="AG39">
+        <v>2.42</v>
+      </c>
+      <c r="AH39">
+        <v>1.33</v>
+      </c>
+      <c r="AI39">
+        <v>3.1</v>
+      </c>
+      <c r="AJ39">
+        <v>1.58</v>
+      </c>
+      <c r="AK39">
+        <v>2.28</v>
+      </c>
+      <c r="AL39">
+        <v>2.25</v>
+      </c>
+      <c r="AM39">
         <v>2</v>
       </c>
-      <c r="H39">
+      <c r="AN39">
         <v>2.5</v>
       </c>
-      <c r="I39">
-        <v>5.5</v>
-      </c>
-      <c r="J39">
-        <v>1.53</v>
-      </c>
-      <c r="K39">
-        <v>4.33</v>
-      </c>
-      <c r="L39">
-        <v>6</v>
-      </c>
-      <c r="M39">
+      <c r="AO39">
+        <v>1.49</v>
+      </c>
+      <c r="AP39">
+        <v>3.4</v>
+      </c>
+      <c r="AQ39">
         <v>1.29</v>
-      </c>
-      <c r="N39">
-        <v>3.5</v>
-      </c>
-      <c r="O39">
-        <v>1.02</v>
-      </c>
-      <c r="P39">
-        <v>17</v>
-      </c>
-      <c r="Q39">
-        <v>1.19</v>
-      </c>
-      <c r="R39">
-        <v>4.75</v>
-      </c>
-      <c r="S39">
-        <v>1.57</v>
-      </c>
-      <c r="T39">
-        <v>2.3</v>
-      </c>
-      <c r="U39">
-        <v>1.7</v>
-      </c>
-      <c r="V39">
-        <v>2.05</v>
-      </c>
-      <c r="W39">
-        <v>1.14</v>
-      </c>
-      <c r="X39">
-        <v>1.17</v>
-      </c>
-      <c r="Y39">
-        <v>2.55</v>
-      </c>
-      <c r="Z39">
-        <v>1.38</v>
-      </c>
-      <c r="AA39">
-        <v>0.44</v>
-      </c>
-      <c r="AB39">
-        <v>1.4</v>
-      </c>
-      <c r="AC39">
-        <v>0.92</v>
-      </c>
-      <c r="AD39">
-        <v>2.32</v>
-      </c>
-      <c r="AE39">
-        <v>1.41</v>
-      </c>
-      <c r="AF39">
-        <v>9</v>
-      </c>
-      <c r="AG39">
-        <v>3.55</v>
-      </c>
-      <c r="AH39">
-        <v>1.19</v>
-      </c>
-      <c r="AI39">
-        <v>3.85</v>
-      </c>
-      <c r="AJ39">
-        <v>1.35</v>
-      </c>
-      <c r="AK39">
-        <v>2.75</v>
-      </c>
-      <c r="AL39">
-        <v>1.62</v>
-      </c>
-      <c r="AM39">
-        <v>2.1</v>
-      </c>
-      <c r="AN39">
-        <v>2</v>
-      </c>
-      <c r="AO39">
-        <v>1.7</v>
-      </c>
-      <c r="AP39">
-        <v>2.5</v>
-      </c>
-      <c r="AQ39">
-        <v>1.42</v>
       </c>
     </row>
     <row r="40" spans="1:43">
@@ -6107,22 +6107,22 @@
         <v>184</v>
       </c>
       <c r="G40">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I40">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J40">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="K40">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="M40">
         <v>1.5</v>
@@ -6137,90 +6137,90 @@
         <v>8</v>
       </c>
       <c r="Q40">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R40">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S40">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="T40">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V40">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W40">
         <v>1.45</v>
       </c>
       <c r="X40">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y40">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AA40">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
       <c r="AB40">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="AC40">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD40">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="AE40">
+        <v>1.87</v>
+      </c>
+      <c r="AF40">
+        <v>7.1</v>
+      </c>
+      <c r="AG40">
+        <v>2.42</v>
+      </c>
+      <c r="AH40">
+        <v>1.32</v>
+      </c>
+      <c r="AI40">
+        <v>3.2</v>
+      </c>
+      <c r="AJ40">
+        <v>1.56</v>
+      </c>
+      <c r="AK40">
+        <v>2.33</v>
+      </c>
+      <c r="AL40">
+        <v>2.38</v>
+      </c>
+      <c r="AM40">
         <v>1.95</v>
       </c>
-      <c r="AF40">
-        <v>8</v>
-      </c>
-      <c r="AG40">
-        <v>2.1</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>2.25</v>
-      </c>
-      <c r="AM40">
-        <v>1.98</v>
-      </c>
       <c r="AN40">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2">
         <v>45408</v>
@@ -6229,7 +6229,7 @@
         <v>86</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
         <v>132</v>
@@ -6238,120 +6238,120 @@
         <v>185</v>
       </c>
       <c r="G41">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="H41">
+        <v>2.5</v>
+      </c>
+      <c r="I41">
+        <v>5.5</v>
+      </c>
+      <c r="J41">
+        <v>1.42</v>
+      </c>
+      <c r="K41">
+        <v>4.45</v>
+      </c>
+      <c r="L41">
+        <v>5.7</v>
+      </c>
+      <c r="M41">
+        <v>1.29</v>
+      </c>
+      <c r="N41">
+        <v>3.5</v>
+      </c>
+      <c r="O41">
+        <v>1.02</v>
+      </c>
+      <c r="P41">
+        <v>17</v>
+      </c>
+      <c r="Q41">
+        <v>1.19</v>
+      </c>
+      <c r="R41">
+        <v>4.75</v>
+      </c>
+      <c r="S41">
+        <v>1.6</v>
+      </c>
+      <c r="T41">
+        <v>2.3</v>
+      </c>
+      <c r="U41">
+        <v>1.7</v>
+      </c>
+      <c r="V41">
         <v>2.05</v>
       </c>
-      <c r="I41">
-        <v>2.9</v>
-      </c>
-      <c r="J41">
-        <v>2.7</v>
-      </c>
-      <c r="K41">
-        <v>3.2</v>
-      </c>
-      <c r="L41">
-        <v>2.3</v>
-      </c>
-      <c r="M41">
+      <c r="W41">
+        <v>1.14</v>
+      </c>
+      <c r="X41">
+        <v>1.17</v>
+      </c>
+      <c r="Y41">
+        <v>2.55</v>
+      </c>
+      <c r="Z41">
+        <v>1.38</v>
+      </c>
+      <c r="AA41">
+        <v>0.44</v>
+      </c>
+      <c r="AB41">
         <v>1.4</v>
       </c>
-      <c r="N41">
-        <v>2.75</v>
-      </c>
-      <c r="O41">
-        <v>1.05</v>
-      </c>
-      <c r="P41">
+      <c r="AC41">
+        <v>0.92</v>
+      </c>
+      <c r="AD41">
+        <v>2.32</v>
+      </c>
+      <c r="AE41">
+        <v>1.41</v>
+      </c>
+      <c r="AF41">
         <v>9</v>
       </c>
-      <c r="Q41">
-        <v>1.3</v>
-      </c>
-      <c r="R41">
-        <v>3.35</v>
-      </c>
-      <c r="S41">
-        <v>1.83</v>
-      </c>
-      <c r="T41">
-        <v>1.83</v>
-      </c>
-      <c r="U41">
-        <v>1.73</v>
-      </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
-      <c r="W41">
-        <v>1.57</v>
-      </c>
-      <c r="X41">
-        <v>1.25</v>
-      </c>
-      <c r="Y41">
-        <v>1.38</v>
-      </c>
-      <c r="Z41">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AA41">
-        <v>0.63</v>
-      </c>
-      <c r="AB41">
-        <v>1.15</v>
-      </c>
-      <c r="AC41">
-        <v>1.18</v>
-      </c>
-      <c r="AD41">
-        <v>2.33</v>
-      </c>
-      <c r="AE41">
-        <v>2.1</v>
-      </c>
-      <c r="AF41">
-        <v>8.5</v>
-      </c>
       <c r="AG41">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="AH41">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AI41">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AJ41">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AK41">
         <v>2.75</v>
       </c>
       <c r="AL41">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AM41">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AN41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO41">
         <v>1.7</v>
       </c>
       <c r="AP41">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2">
         <v>45408</v>
@@ -6360,7 +6360,7 @@
         <v>86</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
         <v>133</v>
@@ -6369,115 +6369,115 @@
         <v>186</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="H42">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I42">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="J42">
-        <v>2.71</v>
+        <v>2.95</v>
       </c>
       <c r="K42">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L42">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="M42">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N42">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O42">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q42">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="S42">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T42">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U42">
+        <v>1.73</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.8</v>
-      </c>
       <c r="W42">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="X42">
         <v>1.25</v>
       </c>
       <c r="Y42">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="AB42">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AC42">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="AD42">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AE42">
-        <v>2.91</v>
+        <v>2.1</v>
       </c>
       <c r="AF42">
         <v>8.5</v>
       </c>
       <c r="AG42">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL42">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN42">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="43" spans="1:43">
@@ -6503,19 +6503,19 @@
         <v>3.25</v>
       </c>
       <c r="H43">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J43">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="K43">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="L43">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="M43">
         <v>1.5</v>
@@ -6530,85 +6530,85 @@
         <v>8</v>
       </c>
       <c r="Q43">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R43">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S43">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="T43">
         <v>1.62</v>
       </c>
       <c r="U43">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W43">
         <v>1.45</v>
       </c>
       <c r="X43">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y43">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Z43">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="AA43">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="AB43">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="AC43">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD43">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="AE43">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="AF43">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AG43">
         <v>2.2</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ43">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL43">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AM43">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -6622,7 +6622,7 @@
         <v>87</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
         <v>135</v>
@@ -6631,120 +6631,120 @@
         <v>188</v>
       </c>
       <c r="G44">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="H44">
+        <v>2.25</v>
+      </c>
+      <c r="I44">
+        <v>4.33</v>
+      </c>
+      <c r="J44">
+        <v>1.92</v>
+      </c>
+      <c r="K44">
+        <v>3.37</v>
+      </c>
+      <c r="L44">
+        <v>3.45</v>
+      </c>
+      <c r="M44">
+        <v>1.36</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>1.04</v>
+      </c>
+      <c r="P44">
+        <v>13</v>
+      </c>
+      <c r="Q44">
+        <v>1.26</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>1.8</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>1.7</v>
+      </c>
+      <c r="V44">
+        <v>2.05</v>
+      </c>
+      <c r="W44">
+        <v>1.28</v>
+      </c>
+      <c r="X44">
+        <v>1.24</v>
+      </c>
+      <c r="Y44">
+        <v>1.9</v>
+      </c>
+      <c r="Z44">
+        <v>1.13</v>
+      </c>
+      <c r="AA44">
+        <v>1.36</v>
+      </c>
+      <c r="AB44">
+        <v>1.64</v>
+      </c>
+      <c r="AC44">
+        <v>1.13</v>
+      </c>
+      <c r="AD44">
+        <v>2.77</v>
+      </c>
+      <c r="AE44">
+        <v>1.63</v>
+      </c>
+      <c r="AF44">
+        <v>7.5</v>
+      </c>
+      <c r="AG44">
+        <v>2.7</v>
+      </c>
+      <c r="AH44">
+        <v>1.3</v>
+      </c>
+      <c r="AI44">
+        <v>2.95</v>
+      </c>
+      <c r="AJ44">
+        <v>1.57</v>
+      </c>
+      <c r="AK44">
         <v>2.2</v>
       </c>
-      <c r="I44">
-        <v>2.2</v>
-      </c>
-      <c r="J44">
-        <v>4.8</v>
-      </c>
-      <c r="K44">
-        <v>3.9</v>
-      </c>
-      <c r="L44">
-        <v>1.7</v>
-      </c>
-      <c r="M44">
-        <v>1.38</v>
-      </c>
-      <c r="N44">
-        <v>2.85</v>
-      </c>
-      <c r="O44">
-        <v>1.05</v>
-      </c>
-      <c r="P44">
-        <v>12.5</v>
-      </c>
-      <c r="Q44">
-        <v>1.29</v>
-      </c>
-      <c r="R44">
-        <v>3.65</v>
-      </c>
-      <c r="S44">
-        <v>1.83</v>
-      </c>
-      <c r="T44">
-        <v>1.91</v>
-      </c>
-      <c r="U44">
-        <v>1.85</v>
-      </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
-      <c r="W44">
-        <v>2.15</v>
-      </c>
-      <c r="X44">
-        <v>1.25</v>
-      </c>
-      <c r="Y44">
-        <v>1.19</v>
-      </c>
-      <c r="Z44">
-        <v>1.09</v>
-      </c>
-      <c r="AA44">
-        <v>1.68</v>
-      </c>
-      <c r="AB44">
-        <v>1.47</v>
-      </c>
-      <c r="AC44">
-        <v>1.4</v>
-      </c>
-      <c r="AD44">
-        <v>2.87</v>
-      </c>
-      <c r="AE44">
+      <c r="AL44">
+        <v>1.96</v>
+      </c>
+      <c r="AM44">
+        <v>1.73</v>
+      </c>
+      <c r="AN44">
+        <v>2.5</v>
+      </c>
+      <c r="AO44">
+        <v>1.43</v>
+      </c>
+      <c r="AP44">
         <v>3.35</v>
       </c>
-      <c r="AF44">
-        <v>8</v>
-      </c>
-      <c r="AG44">
-        <v>1.47</v>
-      </c>
-      <c r="AH44">
-        <v>1.13</v>
-      </c>
-      <c r="AI44">
-        <v>5.01</v>
-      </c>
-      <c r="AJ44">
-        <v>1.29</v>
-      </c>
-      <c r="AK44">
-        <v>3.26</v>
-      </c>
-      <c r="AL44">
-        <v>1.56</v>
-      </c>
-      <c r="AM44">
-        <v>2.42</v>
-      </c>
-      <c r="AN44">
-        <v>1.9</v>
-      </c>
-      <c r="AO44">
-        <v>1.9</v>
-      </c>
-      <c r="AP44">
-        <v>2.4</v>
-      </c>
       <c r="AQ44">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="45" spans="1:43">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2">
         <v>45408</v>
@@ -6753,7 +6753,7 @@
         <v>87</v>
       </c>
       <c r="D45">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
         <v>136</v>
@@ -6762,22 +6762,22 @@
         <v>189</v>
       </c>
       <c r="G45">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="H45">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="I45">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="J45">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="K45">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="M45">
         <v>1.44</v>
@@ -6786,96 +6786,96 @@
         <v>2.63</v>
       </c>
       <c r="O45">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P45">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q45">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="R45">
         <v>3.1</v>
       </c>
       <c r="S45">
+        <v>1.95</v>
+      </c>
+      <c r="T45">
+        <v>1.85</v>
+      </c>
+      <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
+        <v>1.8</v>
+      </c>
+      <c r="W45">
+        <v>1.11</v>
+      </c>
+      <c r="X45">
+        <v>1.2</v>
+      </c>
+      <c r="Y45">
+        <v>2.4</v>
+      </c>
+      <c r="Z45">
         <v>2</v>
       </c>
-      <c r="T45">
-        <v>1.73</v>
-      </c>
-      <c r="U45">
-        <v>1.8</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>1.48</v>
-      </c>
-      <c r="X45">
-        <v>1.3</v>
-      </c>
-      <c r="Y45">
-        <v>1.52</v>
-      </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>1.6</v>
       </c>
-      <c r="AA45">
-        <v>2.31</v>
-      </c>
       <c r="AB45">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AC45">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="AD45">
-        <v>3.17</v>
+        <v>2.98</v>
       </c>
       <c r="AE45">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AF45">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AG45">
-        <v>2.2</v>
+        <v>4.57</v>
       </c>
       <c r="AH45">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="AI45">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="AJ45">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="AK45">
-        <v>2.06</v>
+        <v>3.5</v>
       </c>
       <c r="AL45">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="AM45">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AN45">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="AO45">
-        <v>1.37</v>
+        <v>1.82</v>
       </c>
       <c r="AP45">
-        <v>3.65</v>
+        <v>2.23</v>
       </c>
       <c r="AQ45">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="46" spans="1:43">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2">
         <v>45408</v>
@@ -6884,7 +6884,7 @@
         <v>87</v>
       </c>
       <c r="D46">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>137</v>
@@ -6893,120 +6893,120 @@
         <v>190</v>
       </c>
       <c r="G46">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="H46">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I46">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="J46">
+        <v>4.85</v>
+      </c>
+      <c r="K46">
+        <v>3.98</v>
+      </c>
+      <c r="L46">
+        <v>1.53</v>
+      </c>
+      <c r="M46">
+        <v>1.38</v>
+      </c>
+      <c r="N46">
+        <v>2.85</v>
+      </c>
+      <c r="O46">
+        <v>1.05</v>
+      </c>
+      <c r="P46">
+        <v>12.5</v>
+      </c>
+      <c r="Q46">
+        <v>1.29</v>
+      </c>
+      <c r="R46">
+        <v>3.65</v>
+      </c>
+      <c r="S46">
+        <v>1.76</v>
+      </c>
+      <c r="T46">
+        <v>1.94</v>
+      </c>
+      <c r="U46">
+        <v>1.85</v>
+      </c>
+      <c r="V46">
+        <v>1.85</v>
+      </c>
+      <c r="W46">
         <v>2.15</v>
       </c>
-      <c r="K46">
-        <v>3.4</v>
-      </c>
-      <c r="L46">
-        <v>3.3</v>
-      </c>
-      <c r="M46">
-        <v>1.36</v>
-      </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
-      <c r="O46">
-        <v>1.04</v>
-      </c>
-      <c r="P46">
-        <v>13</v>
-      </c>
-      <c r="Q46">
-        <v>1.26</v>
-      </c>
-      <c r="R46">
-        <v>4</v>
-      </c>
-      <c r="S46">
-        <v>1.75</v>
-      </c>
-      <c r="T46">
-        <v>1.95</v>
-      </c>
-      <c r="U46">
-        <v>1.7</v>
-      </c>
-      <c r="V46">
-        <v>2.05</v>
-      </c>
-      <c r="W46">
-        <v>1.28</v>
-      </c>
       <c r="X46">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Y46">
+        <v>1.19</v>
+      </c>
+      <c r="Z46">
+        <v>1.09</v>
+      </c>
+      <c r="AA46">
+        <v>1.68</v>
+      </c>
+      <c r="AB46">
+        <v>1.47</v>
+      </c>
+      <c r="AC46">
+        <v>1.4</v>
+      </c>
+      <c r="AD46">
+        <v>2.87</v>
+      </c>
+      <c r="AE46">
+        <v>3.35</v>
+      </c>
+      <c r="AF46">
+        <v>8</v>
+      </c>
+      <c r="AG46">
+        <v>1.47</v>
+      </c>
+      <c r="AH46">
+        <v>1.13</v>
+      </c>
+      <c r="AI46">
+        <v>5.01</v>
+      </c>
+      <c r="AJ46">
+        <v>1.29</v>
+      </c>
+      <c r="AK46">
+        <v>3.26</v>
+      </c>
+      <c r="AL46">
+        <v>1.56</v>
+      </c>
+      <c r="AM46">
+        <v>2.42</v>
+      </c>
+      <c r="AN46">
         <v>1.9</v>
       </c>
-      <c r="Z46">
-        <v>1.13</v>
-      </c>
-      <c r="AA46">
-        <v>1.36</v>
-      </c>
-      <c r="AB46">
-        <v>1.64</v>
-      </c>
-      <c r="AC46">
-        <v>1.13</v>
-      </c>
-      <c r="AD46">
-        <v>2.77</v>
-      </c>
-      <c r="AE46">
-        <v>1.63</v>
-      </c>
-      <c r="AF46">
-        <v>7.5</v>
-      </c>
-      <c r="AG46">
-        <v>2.7</v>
-      </c>
-      <c r="AH46">
-        <v>1.3</v>
-      </c>
-      <c r="AI46">
-        <v>2.95</v>
-      </c>
-      <c r="AJ46">
+      <c r="AO46">
+        <v>1.9</v>
+      </c>
+      <c r="AP46">
+        <v>2.4</v>
+      </c>
+      <c r="AQ46">
         <v>1.57</v>
-      </c>
-      <c r="AK46">
-        <v>2.2</v>
-      </c>
-      <c r="AL46">
-        <v>1.96</v>
-      </c>
-      <c r="AM46">
-        <v>1.73</v>
-      </c>
-      <c r="AN46">
-        <v>2.5</v>
-      </c>
-      <c r="AO46">
-        <v>1.43</v>
-      </c>
-      <c r="AP46">
-        <v>3.35</v>
-      </c>
-      <c r="AQ46">
-        <v>1.24</v>
       </c>
     </row>
     <row r="47" spans="1:43">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2">
         <v>45408</v>
@@ -7015,7 +7015,7 @@
         <v>87</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
         <v>138</v>
@@ -7024,22 +7024,22 @@
         <v>191</v>
       </c>
       <c r="G47">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="H47">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I47">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="J47">
-        <v>1.48</v>
+        <v>2.47</v>
       </c>
       <c r="K47">
-        <v>3.51</v>
+        <v>3.15</v>
       </c>
       <c r="L47">
-        <v>5.84</v>
+        <v>2.61</v>
       </c>
       <c r="M47">
         <v>1.44</v>
@@ -7048,91 +7048,91 @@
         <v>2.63</v>
       </c>
       <c r="O47">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P47">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q47">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="R47">
         <v>3.1</v>
       </c>
       <c r="S47">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="T47">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
+        <v>1.8</v>
+      </c>
+      <c r="V47">
         <v>1.95</v>
       </c>
-      <c r="V47">
-        <v>1.8</v>
-      </c>
       <c r="W47">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="X47">
+        <v>1.3</v>
+      </c>
+      <c r="Y47">
+        <v>1.52</v>
+      </c>
+      <c r="Z47">
+        <v>1.6</v>
+      </c>
+      <c r="AA47">
+        <v>2.31</v>
+      </c>
+      <c r="AB47">
+        <v>1.55</v>
+      </c>
+      <c r="AC47">
+        <v>1.62</v>
+      </c>
+      <c r="AD47">
+        <v>3.17</v>
+      </c>
+      <c r="AE47">
+        <v>1.89</v>
+      </c>
+      <c r="AF47">
+        <v>7</v>
+      </c>
+      <c r="AG47">
+        <v>2.2</v>
+      </c>
+      <c r="AH47">
+        <v>1.36</v>
+      </c>
+      <c r="AI47">
+        <v>2.7</v>
+      </c>
+      <c r="AJ47">
+        <v>1.65</v>
+      </c>
+      <c r="AK47">
+        <v>2.06</v>
+      </c>
+      <c r="AL47">
+        <v>2.08</v>
+      </c>
+      <c r="AM47">
+        <v>1.63</v>
+      </c>
+      <c r="AN47">
+        <v>2.7</v>
+      </c>
+      <c r="AO47">
+        <v>1.37</v>
+      </c>
+      <c r="AP47">
+        <v>3.65</v>
+      </c>
+      <c r="AQ47">
         <v>1.2</v>
-      </c>
-      <c r="Y47">
-        <v>2.4</v>
-      </c>
-      <c r="Z47">
-        <v>2</v>
-      </c>
-      <c r="AA47">
-        <v>1.6</v>
-      </c>
-      <c r="AB47">
-        <v>1.75</v>
-      </c>
-      <c r="AC47">
-        <v>1.23</v>
-      </c>
-      <c r="AD47">
-        <v>2.98</v>
-      </c>
-      <c r="AE47">
-        <v>1.23</v>
-      </c>
-      <c r="AF47">
-        <v>11</v>
-      </c>
-      <c r="AG47">
-        <v>5.1</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>1.91</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>1.98</v>
-      </c>
-      <c r="AO47">
-        <v>1.82</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:43">
@@ -7164,13 +7164,13 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2.7</v>
+        <v>2.27</v>
       </c>
       <c r="K48">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -7191,10 +7191,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T48">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -7286,7 +7286,7 @@
         <v>193</v>
       </c>
       <c r="G49">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H49">
         <v>1.91</v>
@@ -7295,13 +7295,13 @@
         <v>3.75</v>
       </c>
       <c r="J49">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="K49">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="M49">
         <v>1.57</v>
@@ -7322,16 +7322,16 @@
         <v>2.46</v>
       </c>
       <c r="S49">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="T49">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U49">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V49">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="W49">
         <v>1.35</v>
@@ -7358,13 +7358,13 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="AF49">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AG49">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AH49">
         <v>1.2</v>
@@ -7417,22 +7417,22 @@
         <v>194</v>
       </c>
       <c r="G50">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H50">
         <v>2.05</v>
       </c>
       <c r="I50">
+        <v>6.5</v>
+      </c>
+      <c r="J50">
+        <v>1.65</v>
+      </c>
+      <c r="K50">
+        <v>3.6</v>
+      </c>
+      <c r="L50">
         <v>6</v>
-      </c>
-      <c r="J50">
-        <v>1.63</v>
-      </c>
-      <c r="K50">
-        <v>3.18</v>
-      </c>
-      <c r="L50">
-        <v>4.9</v>
       </c>
       <c r="M50">
         <v>1.48</v>
@@ -7453,16 +7453,16 @@
         <v>2.71</v>
       </c>
       <c r="S50">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="T50">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U50">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="V50">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="W50">
         <v>1.15</v>
@@ -7489,13 +7489,13 @@
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AF50">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG50">
-        <v>4.11</v>
+        <v>3.64</v>
       </c>
       <c r="AH50">
         <v>1.18</v>
@@ -7557,13 +7557,13 @@
         <v>4.2</v>
       </c>
       <c r="J51">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="K51">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="M51">
         <v>1.39</v>
@@ -7584,10 +7584,10 @@
         <v>3.28</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T51">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U51">
         <v>1.76</v>
@@ -7679,22 +7679,22 @@
         <v>196</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>2.75</v>
       </c>
       <c r="J52">
-        <v>3.17</v>
+        <v>4</v>
       </c>
       <c r="K52">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="L52">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="M52">
         <v>1.54</v>
@@ -7715,16 +7715,16 @@
         <v>2.54</v>
       </c>
       <c r="S52">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="T52">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="U52">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="V52">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W52">
         <v>1.8</v>
@@ -7751,13 +7751,13 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="AF52">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="AG52">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="AH52">
         <v>1.19</v>
@@ -7819,13 +7819,13 @@
         <v>3.2</v>
       </c>
       <c r="J53">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="K53">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="L53">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="M53">
         <v>1.38</v>
@@ -7846,10 +7846,10 @@
         <v>3.2</v>
       </c>
       <c r="S53">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="U53">
         <v>1.73</v>
@@ -7882,25 +7882,25 @@
         <v>2.6</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL53">
         <v>2.38</v>
@@ -7909,16 +7909,16 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP53">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -7941,22 +7941,22 @@
         <v>198</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H54">
         <v>1.95</v>
       </c>
       <c r="I54">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J54">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="K54">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="L54">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
         <v>1.57</v>
@@ -7977,16 +7977,16 @@
         <v>2.46</v>
       </c>
       <c r="S54">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="T54">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U54">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="V54">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W54">
         <v>1.25</v>
@@ -8013,13 +8013,13 @@
         <v>0</v>
       </c>
       <c r="AE54">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AF54">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="AG54">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="AH54">
         <v>1.21</v>
